--- a/PROJECTS/ERP/Documents/Entity List.xlsx
+++ b/PROJECTS/ERP/Documents/Entity List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="143">
   <si>
     <t>Hospital Management System</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Security</t>
   </si>
   <si>
-    <t>Transaction</t>
-  </si>
-  <si>
     <t>Transaction Doctor Desktop</t>
   </si>
   <si>
@@ -298,6 +295,156 @@
   </si>
   <si>
     <t>T_LaboratoryTestResult_tab</t>
+  </si>
+  <si>
+    <t>Master: HMS:  Doctor Desktop</t>
+  </si>
+  <si>
+    <t>M_FavoriteMedicine</t>
+  </si>
+  <si>
+    <t>M_FavoriteMedicinePama</t>
+  </si>
+  <si>
+    <t>M_Medical_Disasters</t>
+  </si>
+  <si>
+    <t>M_Medical_Disasters_Procedures</t>
+  </si>
+  <si>
+    <t>M_DoctorChadaysCancelation</t>
+  </si>
+  <si>
+    <t>TBLM_MOH_Division</t>
+  </si>
+  <si>
+    <t>HMS:  Transaction Doctor Desktop</t>
+  </si>
+  <si>
+    <t>T_PatientDiagnosisRecords</t>
+  </si>
+  <si>
+    <t>T_PatientDiagnosisRecords_Log</t>
+  </si>
+  <si>
+    <t>T_PatientDiagnosis</t>
+  </si>
+  <si>
+    <t>T_PatientDiagnosis_Log</t>
+  </si>
+  <si>
+    <t>T_PatientDiagnosis_Vaccination</t>
+  </si>
+  <si>
+    <t>T_PatientDiagnosis_Vaccination_Log</t>
+  </si>
+  <si>
+    <t>M_Vaccination_Type_TITLE</t>
+  </si>
+  <si>
+    <t>T_PatientDiagnosis_Deworming</t>
+  </si>
+  <si>
+    <t>T_PatientDiagnosis_Deworming_Log</t>
+  </si>
+  <si>
+    <t>T_PatientDiagnosis_Lab_Test_Requriments</t>
+  </si>
+  <si>
+    <t>T_PatientDiagnosis_Lab_Test_Requriments_Log</t>
+  </si>
+  <si>
+    <t>sl_sales_inv_det_Temp</t>
+  </si>
+  <si>
+    <t>DR_CustomerRegistration_SPNote</t>
+  </si>
+  <si>
+    <t>sl_sales_inv_mast_Lab</t>
+  </si>
+  <si>
+    <t>sl_sales_inv_det_Lab</t>
+  </si>
+  <si>
+    <t>sl_sales_inv_det_Lab_tax</t>
+  </si>
+  <si>
+    <t>T_PatientPrescription</t>
+  </si>
+  <si>
+    <t>T_PatientPrescription_Log</t>
+  </si>
+  <si>
+    <t>T_PatientPrescriptionDetials</t>
+  </si>
+  <si>
+    <t>T_PatientPrescriptionDetials_Log</t>
+  </si>
+  <si>
+    <t>T_PatientDiagnosis_Dental_Test_Requriments</t>
+  </si>
+  <si>
+    <t>T_PatientDiagnosis_Dental_Test_Requriments_Log</t>
+  </si>
+  <si>
+    <t>T_PatientDiagnosis_Dental_Test_Tooth_Requriments</t>
+  </si>
+  <si>
+    <t>T_PatientDiagnosis_Dental_Test_Tooth_Requriments_Log</t>
+  </si>
+  <si>
+    <t>T_PatientPrescriptionPamaDef</t>
+  </si>
+  <si>
+    <t>T_PatientPrescriptionPamaDef_Log</t>
+  </si>
+  <si>
+    <t>T_PatientPrescriptionDetialsPamaDef</t>
+  </si>
+  <si>
+    <t>T_PatientPrescriptionDetialsPamaDef_Log</t>
+  </si>
+  <si>
+    <t>T_PatientPrescriptionDefault</t>
+  </si>
+  <si>
+    <t>T_PatientPrescriptionDetialsDefault</t>
+  </si>
+  <si>
+    <t>T_PatientDiagnosis_Eye_Test_Requriments</t>
+  </si>
+  <si>
+    <t>T_PatientDiagnosis_Eye_Test_Requriments_Log</t>
+  </si>
+  <si>
+    <t>T_PatientDiagnosis_EyeNote_Test_Requriments</t>
+  </si>
+  <si>
+    <t>T_PatientDiagnosis_EyeNote_Test_Requriments_Log</t>
+  </si>
+  <si>
+    <t>IPD_sl_sales_inv_mast</t>
+  </si>
+  <si>
+    <t>IPD_sl_sales_inv_det</t>
+  </si>
+  <si>
+    <t>M_AUTO_NUMBER</t>
+  </si>
+  <si>
+    <t>M_AUTO_NUMBER_DISPATCH</t>
+  </si>
+  <si>
+    <t>M_AUTO_NUMBER_INV</t>
+  </si>
+  <si>
+    <t>M_Services_Registrations</t>
+  </si>
+  <si>
+    <t>M_Services_Item_Registrations</t>
+  </si>
+  <si>
+    <t>M_Services_Tax</t>
   </si>
 </sst>
 </file>
@@ -670,29 +817,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q32"/>
+  <dimension ref="B1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" customWidth="1"/>
+    <col min="8" max="8" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="27.85546875" customWidth="1"/>
     <col min="13" max="13" width="43.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="43.28515625" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="53.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -712,13 +859,13 @@
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -727,317 +874,495 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q3" t="s">
         <v>4</v>
-      </c>
-      <c r="P3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>140</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N5" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="O5" t="s">
+        <v>94</v>
+      </c>
+      <c r="P5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>141</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="O6" t="s">
+        <v>95</v>
+      </c>
+      <c r="P6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>142</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N8" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="O8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
       </c>
       <c r="M9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N9" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="P9" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>135</v>
       </c>
       <c r="N11" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="P11" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" t="s">
+        <v>136</v>
       </c>
       <c r="M12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N12" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="P12" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M14" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="P14" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+      <c r="P15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" t="s">
         <v>45</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>42</v>
+      <c r="N16" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M17" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="N17" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M18" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="N18" t="s">
+        <v>116</v>
+      </c>
+      <c r="P18" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M19" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="P19" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="P21" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M22" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="P23" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="4:17" x14ac:dyDescent="0.25">
       <c r="M24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>137</v>
+      </c>
       <c r="Q25" s="3"/>
     </row>
+    <row r="26" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>138</v>
+      </c>
+    </row>
     <row r="27" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>139</v>
+      </c>
       <c r="M27" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="P27" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="4:17" x14ac:dyDescent="0.25">
       <c r="M28" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="P28" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="4:17" x14ac:dyDescent="0.25">
       <c r="M30" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="P30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="P31" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="4:17" x14ac:dyDescent="0.25">
       <c r="M32" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="P32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P34" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P38" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P46" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P47" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P49" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P50" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/PROJECTS/ERP/Documents/Entity List.xlsx
+++ b/PROJECTS/ERP/Documents/Entity List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="181">
   <si>
     <t>Hospital Management System</t>
   </si>
@@ -183,9 +183,6 @@
     <t>sl_Channeling_Booking_mast</t>
   </si>
   <si>
-    <t>Transaction:HMS:Sale</t>
-  </si>
-  <si>
     <t>sl_sales_inv_mast</t>
   </si>
   <si>
@@ -445,6 +442,123 @@
   </si>
   <si>
     <t>M_Services_Tax</t>
+  </si>
+  <si>
+    <t>M_DepBCommision_tab</t>
+  </si>
+  <si>
+    <t>Master  Data :  Customer</t>
+  </si>
+  <si>
+    <t>M_Patient_Family_tab</t>
+  </si>
+  <si>
+    <t>M_Patient_Family_Relations_tab</t>
+  </si>
+  <si>
+    <t>DR_CustomerTypes_tab</t>
+  </si>
+  <si>
+    <t>DR_CustomerRegistration_tab</t>
+  </si>
+  <si>
+    <t>DR_CustomerRegistration_tabLog</t>
+  </si>
+  <si>
+    <t>DR_CustomerGuardianRegistration_tab</t>
+  </si>
+  <si>
+    <t>DR_CustomerGuardian_tab</t>
+  </si>
+  <si>
+    <t>DR_CustomerGuardianBiological_tab</t>
+  </si>
+  <si>
+    <t>DR_CustomerBiological_tab</t>
+  </si>
+  <si>
+    <t>Master  Data :HMS  Customer</t>
+  </si>
+  <si>
+    <t>DR_CusReg_FloatAmt_tab</t>
+  </si>
+  <si>
+    <t>DR_CustomerRegistration_Image_tab</t>
+  </si>
+  <si>
+    <t>DR_CusReg_FloatAmt_setle_tab</t>
+  </si>
+  <si>
+    <t>DR_Cash_Receipt_Deposit_tab</t>
+  </si>
+  <si>
+    <t>M_Insurance_Providers</t>
+  </si>
+  <si>
+    <t>Master  Data :  Product</t>
+  </si>
+  <si>
+    <t>MUnitOfMesure</t>
+  </si>
+  <si>
+    <t>PItem_types_tab</t>
+  </si>
+  <si>
+    <t>PItem_grp_tab</t>
+  </si>
+  <si>
+    <t>PItems_tab</t>
+  </si>
+  <si>
+    <t>MItem_UnitOfMesure</t>
+  </si>
+  <si>
+    <t>PItems_Sup_tab</t>
+  </si>
+  <si>
+    <t>PItems_tab_plu_Level</t>
+  </si>
+  <si>
+    <t>PItems_Property_tab</t>
+  </si>
+  <si>
+    <t>PItems_Property_Set</t>
+  </si>
+  <si>
+    <t>PItems_Disassembly_BOM_tab</t>
+  </si>
+  <si>
+    <t>Master  Data :  Product: Production</t>
+  </si>
+  <si>
+    <t>PItems_BOM_tab</t>
+  </si>
+  <si>
+    <t>PItems_BOM_Alter_tab</t>
+  </si>
+  <si>
+    <t>PItems_Customer_tab</t>
+  </si>
+  <si>
+    <t>sl_inv_types</t>
+  </si>
+  <si>
+    <t>Transaction:Sale</t>
+  </si>
+  <si>
+    <t>M_Deworm_Schedule</t>
+  </si>
+  <si>
+    <t>M_Tax</t>
+  </si>
+  <si>
+    <t>TBLM_CRCARD-Payment Types</t>
+  </si>
+  <si>
+    <t>TBLM_Biological_information</t>
+  </si>
+  <si>
+    <t>TBLM_TITLE</t>
   </si>
 </sst>
 </file>
@@ -817,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q50"/>
+  <dimension ref="B1:U50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,35 +943,37 @@
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.85546875" customWidth="1"/>
-    <col min="13" max="13" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="43.28515625" customWidth="1"/>
-    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="53.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="36.42578125" customWidth="1"/>
+    <col min="11" max="11" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.85546875" customWidth="1"/>
+    <col min="17" max="17" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="43.28515625" customWidth="1"/>
+    <col min="19" max="19" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
@@ -873,52 +989,67 @@
       <c r="F3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="N3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" t="s">
-        <v>93</v>
-      </c>
-      <c r="P3" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="P3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S3" t="s">
+        <v>92</v>
+      </c>
+      <c r="T3" t="s">
+        <v>99</v>
+      </c>
+      <c r="U3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" t="s">
+      <c r="K4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -926,37 +1057,46 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="G5" t="s">
+        <v>144</v>
       </c>
       <c r="H5" t="s">
+        <v>160</v>
+      </c>
+      <c r="J5" t="s">
+        <v>152</v>
+      </c>
+      <c r="L5" t="s">
         <v>32</v>
       </c>
-      <c r="I5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="M5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" t="s">
         <v>49</v>
       </c>
-      <c r="K5" t="s">
+      <c r="O5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" t="s">
-        <v>67</v>
-      </c>
-      <c r="N5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O5" t="s">
-        <v>94</v>
-      </c>
       <c r="P5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>66</v>
+      </c>
+      <c r="R5" t="s">
+        <v>83</v>
+      </c>
+      <c r="S5" t="s">
+        <v>93</v>
+      </c>
+      <c r="T5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -964,34 +1104,43 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="G6" t="s">
+        <v>145</v>
       </c>
       <c r="H6" t="s">
+        <v>161</v>
+      </c>
+      <c r="J6" t="s">
+        <v>149</v>
+      </c>
+      <c r="L6" t="s">
         <v>33</v>
       </c>
-      <c r="I6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="M6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" t="s">
         <v>50</v>
       </c>
-      <c r="L6" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" t="s">
-        <v>68</v>
-      </c>
-      <c r="N6" t="s">
-        <v>85</v>
-      </c>
-      <c r="O6" t="s">
-        <v>95</v>
-      </c>
       <c r="P6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>67</v>
+      </c>
+      <c r="R6" t="s">
+        <v>84</v>
+      </c>
+      <c r="S6" t="s">
+        <v>94</v>
+      </c>
+      <c r="T6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -999,111 +1148,150 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" t="s">
+        <v>162</v>
+      </c>
+      <c r="J7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" t="s">
+        <v>57</v>
+      </c>
+      <c r="R7" t="s">
+        <v>85</v>
+      </c>
+      <c r="S7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
         <v>142</v>
       </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J8" t="s">
+        <v>151</v>
+      </c>
+      <c r="L8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" t="s">
         <v>64</v>
       </c>
-      <c r="J7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="N8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s">
         <v>58</v>
       </c>
-      <c r="N7" t="s">
+      <c r="Q8" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" t="s">
         <v>86</v>
       </c>
-      <c r="O7" t="s">
+      <c r="S8" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="H8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M8" t="s">
-        <v>81</v>
-      </c>
-      <c r="N8" t="s">
-        <v>87</v>
-      </c>
-      <c r="O8" t="s">
-        <v>97</v>
-      </c>
-      <c r="P8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>10</v>
       </c>
+      <c r="D9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G9" t="s">
+        <v>146</v>
+      </c>
       <c r="H9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K9" t="s">
+        <v>179</v>
+      </c>
+      <c r="L9" t="s">
         <v>36</v>
       </c>
-      <c r="J9" t="s">
-        <v>98</v>
-      </c>
-      <c r="M9" t="s">
-        <v>82</v>
-      </c>
       <c r="N9" t="s">
-        <v>88</v>
-      </c>
-      <c r="P9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>81</v>
+      </c>
+      <c r="R9" t="s">
+        <v>87</v>
+      </c>
+      <c r="T9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
+      <c r="G10" t="s">
+        <v>147</v>
+      </c>
       <c r="H10" t="s">
+        <v>163</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" t="s">
         <v>37</v>
       </c>
-      <c r="M10" t="s">
-        <v>80</v>
-      </c>
-      <c r="N10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q10" t="s">
+        <v>79</v>
+      </c>
+      <c r="R10" t="s">
+        <v>88</v>
+      </c>
+      <c r="S10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>165</v>
+      </c>
+      <c r="K11" t="s">
         <v>38</v>
       </c>
-      <c r="I11" t="s">
-        <v>135</v>
-      </c>
-      <c r="N11" t="s">
-        <v>90</v>
-      </c>
-      <c r="P11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>134</v>
+      </c>
+      <c r="R11" t="s">
+        <v>89</v>
+      </c>
+      <c r="T11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -1111,258 +1299,303 @@
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>107</v>
-      </c>
-      <c r="I12" t="s">
-        <v>136</v>
+        <v>148</v>
+      </c>
+      <c r="H12" t="s">
+        <v>166</v>
+      </c>
+      <c r="K12" t="s">
+        <v>106</v>
       </c>
       <c r="M12" t="s">
-        <v>69</v>
-      </c>
-      <c r="N12" t="s">
-        <v>91</v>
-      </c>
-      <c r="P12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>68</v>
+      </c>
+      <c r="R12" t="s">
+        <v>90</v>
+      </c>
+      <c r="T12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="N13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>178</v>
+      </c>
       <c r="G14" t="s">
+        <v>154</v>
+      </c>
+      <c r="H14" t="s">
+        <v>167</v>
+      </c>
+      <c r="I14" t="s">
+        <v>171</v>
+      </c>
+      <c r="K14" t="s">
         <v>43</v>
       </c>
-      <c r="H14" t="s">
+      <c r="L14" t="s">
         <v>39</v>
       </c>
-      <c r="M14" t="s">
-        <v>79</v>
-      </c>
-      <c r="P14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q14" t="s">
+        <v>78</v>
+      </c>
+      <c r="T14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
+        <v>168</v>
+      </c>
+      <c r="K15" t="s">
         <v>44</v>
       </c>
-      <c r="H15" t="s">
+      <c r="L15" t="s">
         <v>40</v>
       </c>
-      <c r="P15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G16" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" t="s">
         <v>45</v>
       </c>
-      <c r="H16" t="s">
+      <c r="L16" t="s">
         <v>41</v>
       </c>
-      <c r="N16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
+        <v>169</v>
+      </c>
+      <c r="K17" t="s">
         <v>46</v>
       </c>
-      <c r="M17" t="s">
-        <v>70</v>
-      </c>
-      <c r="N17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q17" t="s">
+        <v>69</v>
+      </c>
+      <c r="R17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>24</v>
       </c>
       <c r="G18" t="s">
+        <v>156</v>
+      </c>
+      <c r="I18" t="s">
+        <v>172</v>
+      </c>
+      <c r="K18" t="s">
         <v>47</v>
       </c>
-      <c r="M18" t="s">
-        <v>74</v>
-      </c>
-      <c r="N18" t="s">
-        <v>116</v>
-      </c>
-      <c r="P18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q18" t="s">
+        <v>73</v>
+      </c>
+      <c r="R18" t="s">
+        <v>115</v>
+      </c>
+      <c r="T18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="M19" t="s">
-        <v>77</v>
-      </c>
-      <c r="P19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q19" t="s">
+        <v>76</v>
+      </c>
+      <c r="T19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="P21" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>180</v>
+      </c>
+      <c r="T21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>48</v>
       </c>
-      <c r="M22" t="s">
+      <c r="G22" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="T23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q24" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="P23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="M24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
+        <v>136</v>
+      </c>
+      <c r="U25" s="3"/>
+    </row>
+    <row r="26" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
         <v>137</v>
       </c>
-      <c r="Q25" s="3"/>
-    </row>
-    <row r="26" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
+    </row>
+    <row r="27" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="27" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>139</v>
-      </c>
-      <c r="M27" s="5" t="s">
+      <c r="Q27" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="Q28" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="P27" t="s">
+      <c r="T28" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="M28" s="4" t="s">
+    <row r="30" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="Q30" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="P28" t="s">
+      <c r="T30" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="M30" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="P30" t="s">
+    <row r="31" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="T31" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="P31" t="s">
+    <row r="32" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="Q32" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="T32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T34" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="M32" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="P32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P33" t="s">
+    <row r="35" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T41" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T44" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T46" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P34" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P35" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="37" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P37" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P38" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P41" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="42" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P42" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P43" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="44" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P44" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P46" t="s">
+    <row r="47" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T47" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P47" t="s">
+    <row r="49" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T49" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P49" t="s">
+    <row r="50" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T50" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="50" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P50" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/PROJECTS/ERP/Documents/Entity List.xlsx
+++ b/PROJECTS/ERP/Documents/Entity List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="183">
   <si>
     <t>Hospital Management System</t>
   </si>
@@ -559,6 +559,12 @@
   </si>
   <si>
     <t>TBLM_TITLE</t>
+  </si>
+  <si>
+    <t>T_Services_Item_Registrations_Invoiced-package items</t>
+  </si>
+  <si>
+    <t>T_PatientDiagnosisRecords_InvDet</t>
   </si>
 </sst>
 </file>
@@ -931,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U50"/>
+  <dimension ref="B1:U53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="R20" workbookViewId="0">
+      <selection activeCell="T43" sqref="T43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1449,6 +1455,9 @@
       <c r="G20" t="s">
         <v>157</v>
       </c>
+      <c r="R20" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="21" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
@@ -1596,6 +1605,11 @@
     <row r="50" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T50" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T53" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/PROJECTS/ERP/Documents/Entity List.xlsx
+++ b/PROJECTS/ERP/Documents/Entity List.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Company" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="197">
   <si>
     <t>Hospital Management System</t>
   </si>
@@ -565,6 +565,48 @@
   </si>
   <si>
     <t>T_PatientDiagnosisRecords_InvDet</t>
+  </si>
+  <si>
+    <t>Acc_Curency_tab</t>
+  </si>
+  <si>
+    <t>Acc_Curency_ExDet</t>
+  </si>
+  <si>
+    <t>CR_Cash_Pay_Vou_Mast_tab</t>
+  </si>
+  <si>
+    <t>TBLM_Nationality_TITLE</t>
+  </si>
+  <si>
+    <t>Transaction: Cash Shift Management</t>
+  </si>
+  <si>
+    <t>TBLU_CASH_DENOMINATION</t>
+  </si>
+  <si>
+    <t>TBLU_CASH_DENOMINATION_END</t>
+  </si>
+  <si>
+    <t>TBLU_CASH_DENOMINATION_START</t>
+  </si>
+  <si>
+    <t>TBLU_SHIFT_CASH_IN_OUT</t>
+  </si>
+  <si>
+    <t>TBLU_SHIFT_MAIN</t>
+  </si>
+  <si>
+    <t>TBLT_Patient_Note</t>
+  </si>
+  <si>
+    <t>TBLT_Lab_Test_Sample_Status</t>
+  </si>
+  <si>
+    <t>TBLT_Lab_Test_Status</t>
+  </si>
+  <si>
+    <t>TBLT_Lab_Test_Tests_Status</t>
   </si>
 </sst>
 </file>
@@ -596,7 +638,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -615,6 +657,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -628,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -636,6 +684,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -937,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U53"/>
+  <dimension ref="B1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R20" workbookViewId="0">
-      <selection activeCell="T43" sqref="T43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,9 +1012,10 @@
     <col min="19" max="19" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="53.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="33.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
@@ -976,10 +1026,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
@@ -1040,12 +1090,15 @@
       <c r="U3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" t="s">
@@ -1055,7 +1108,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -1101,8 +1154,11 @@
       <c r="T5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -1145,8 +1201,11 @@
       <c r="T6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -1180,8 +1239,11 @@
       <c r="S7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>142</v>
       </c>
@@ -1213,7 +1275,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -1244,8 +1306,11 @@
       <c r="T9" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -1274,7 +1339,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -1296,8 +1361,11 @@
       <c r="T11" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -1310,6 +1378,9 @@
       <c r="H12" t="s">
         <v>166</v>
       </c>
+      <c r="J12" t="s">
+        <v>193</v>
+      </c>
       <c r="K12" t="s">
         <v>106</v>
       </c>
@@ -1326,7 +1397,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -1337,7 +1408,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>178</v>
       </c>
@@ -1363,7 +1434,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>22</v>
       </c>
@@ -1380,7 +1451,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>98</v>
       </c>
@@ -1479,6 +1550,12 @@
       </c>
     </row>
     <row r="23" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>186</v>
+      </c>
+      <c r="R23" t="s">
+        <v>194</v>
+      </c>
       <c r="T23" t="s">
         <v>112</v>
       </c>
@@ -1490,11 +1567,17 @@
       <c r="Q24" t="s">
         <v>75</v>
       </c>
+      <c r="R24" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="25" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>136</v>
       </c>
+      <c r="R25" t="s">
+        <v>196</v>
+      </c>
       <c r="U25" s="3"/>
     </row>
     <row r="26" spans="4:21" x14ac:dyDescent="0.25">
@@ -1521,7 +1604,15 @@
         <v>117</v>
       </c>
     </row>
+    <row r="29" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>183</v>
+      </c>
+    </row>
     <row r="30" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>184</v>
+      </c>
       <c r="Q30" s="4" t="s">
         <v>72</v>
       </c>
@@ -1535,6 +1626,9 @@
       </c>
     </row>
     <row r="32" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>185</v>
+      </c>
       <c r="Q32" s="6" t="s">
         <v>77</v>
       </c>
@@ -1622,7 +1716,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
